--- a/AEB_Release_ChangeNote.xlsx
+++ b/AEB_Release_ChangeNote.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LENOVO_EMAT\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LENOVO_EMAT\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="20">
   <si>
     <t xml:space="preserve">No </t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -95,6 +95,18 @@
   <si>
     <t>Autoroad Lib V1_9 &amp; Digen Lib V1_7_4
 Running Cycle 70msec  No trigger</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2020.09.18</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20200918_V1_9_Digen_V174_70_FLEET_No_Trigger.7z</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Debug protocol 9/10 반영</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -449,7 +461,7 @@
   <dimension ref="B5:H35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -564,11 +576,19 @@
       <c r="B10" s="1">
         <v>5</v>
       </c>
-      <c r="C10" s="1"/>
+      <c r="C10" s="1" t="s">
+        <v>17</v>
+      </c>
       <c r="D10" s="1"/>
-      <c r="E10" s="1"/>
-      <c r="F10" s="1"/>
-      <c r="G10" s="1"/>
+      <c r="E10" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>19</v>
+      </c>
       <c r="H10" s="1"/>
     </row>
     <row r="11" spans="2:8" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">

--- a/AEB_Release_ChangeNote.xlsx
+++ b/AEB_Release_ChangeNote.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="25">
   <si>
     <t xml:space="preserve">No </t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -42,18 +42,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>change</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>etc</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>20200916_V1_9_DigenL1_7_4_30.7z</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>임승한</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -66,47 +58,72 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>20200916_V1_9_DigenL1_7_4_70.7z</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>20200916_V1_9_DigenL1_7_4_30_NO_TRIGGER.7z</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>20200916_V1_9_DigenL1_7_4_70_No_TRIGGER.7z</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>AutoroadLib v_1_9 &amp; Digen Lib v_1_7_4
-Running cycle time 30msec NO trigger</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>AutoroadLib v_1_9 &amp; Digen Lib v_1_7_4
-Running cycle time 30msec AEB trigger</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Autoroad Lib V1_9 &amp; Digen Lib V1_7_4
-Running Cycle 70msec AEB trigger</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Autoroad Lib V1_9 &amp; Digen Lib V1_7_4
-Running Cycle 70msec  No trigger</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>2020.09.18</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>20200918_V1_9_Digen_V174_70_FLEET_No_Trigger.7z</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Debug protocol 9/10 반영</t>
+    <t>20200916_v174.02.19</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Change</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20200916_v174.04.19</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20200916_v174.01.19</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v174.01.19</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v174.02.19</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20200916_v174.03.19</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v174.03.19</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v174.04.19</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v174.05.19</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20200918_v174.05.19</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Debug protocol 9/10 반영
+AEB Trigger 동작안함</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Running cycle time 30msec &amp;   AEB trigger</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Running Cycle time 70msec &amp;   AEB trigger</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Running cycle time 30msec &amp;   NO trigger</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Running Cycle 70msec  &amp; No trigger</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -114,7 +131,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -130,16 +147,38 @@
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14996795556505021"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -162,20 +201,57 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="double">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -458,413 +534,423 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B5:H35"/>
+  <dimension ref="A3:G33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="3" width="15.125" customWidth="1"/>
-    <col min="4" max="4" width="20.5" customWidth="1"/>
+    <col min="2" max="2" width="15.125" customWidth="1"/>
+    <col min="3" max="3" width="20.5" customWidth="1"/>
+    <col min="4" max="4" width="42.125" customWidth="1"/>
     <col min="5" max="5" width="48.125" customWidth="1"/>
     <col min="6" max="6" width="17.875" customWidth="1"/>
-    <col min="7" max="7" width="42.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" ht="41.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="35.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="2">
+        <v>1</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G4" s="2"/>
+    </row>
+    <row r="5" spans="1:7" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="1">
+        <v>2</v>
+      </c>
       <c r="B5" s="1" t="s">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D5" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G5" s="1"/>
+    </row>
+    <row r="6" spans="1:7" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="1">
+        <v>3</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G6" s="1"/>
+    </row>
+    <row r="7" spans="1:7" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="1">
+        <v>4</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G7" s="1"/>
+    </row>
+    <row r="8" spans="1:7" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="1">
+        <v>5</v>
+      </c>
+      <c r="B8" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E5" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="H5" s="1" t="s">
+      <c r="C8" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F8" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="6" spans="2:8" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="1">
-        <v>1</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D6" s="1"/>
-      <c r="E6" s="1" t="s">
+      <c r="G8" s="1"/>
+    </row>
+    <row r="9" spans="1:7" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="1">
         <v>6</v>
       </c>
-      <c r="F6" s="1" t="s">
+      <c r="B9" s="1"/>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1"/>
+      <c r="G9" s="1"/>
+    </row>
+    <row r="10" spans="1:7" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="1">
         <v>7</v>
       </c>
-      <c r="G6" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="H6" s="1"/>
-    </row>
-    <row r="7" spans="2:8" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="1">
-        <v>2</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D7" s="1"/>
-      <c r="E7" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="G7" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="H7" s="1"/>
-    </row>
-    <row r="8" spans="2:8" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="1">
-        <v>3</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D8" s="1"/>
-      <c r="E8" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="G8" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="H8" s="1"/>
-    </row>
-    <row r="9" spans="2:8" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="1">
-        <v>4</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D9" s="1"/>
-      <c r="E9" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="G9" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="H9" s="1"/>
-    </row>
-    <row r="10" spans="2:8" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="1">
-        <v>5</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>17</v>
-      </c>
+      <c r="B10" s="1"/>
+      <c r="C10" s="1"/>
       <c r="D10" s="1"/>
-      <c r="E10" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="G10" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="H10" s="1"/>
-    </row>
-    <row r="11" spans="2:8" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="1">
-        <v>6</v>
-      </c>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
+      <c r="G10" s="1"/>
+    </row>
+    <row r="11" spans="1:7" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="1">
+        <v>8</v>
+      </c>
+      <c r="B11" s="1"/>
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
       <c r="G11" s="1"/>
-      <c r="H11" s="1"/>
-    </row>
-    <row r="12" spans="2:8" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="1">
-        <v>7</v>
-      </c>
+    </row>
+    <row r="12" spans="1:7" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="1">
+        <v>9</v>
+      </c>
+      <c r="B12" s="1"/>
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
       <c r="E12" s="1"/>
       <c r="F12" s="1"/>
       <c r="G12" s="1"/>
-      <c r="H12" s="1"/>
-    </row>
-    <row r="13" spans="2:8" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="1">
-        <v>8</v>
-      </c>
+    </row>
+    <row r="13" spans="1:7" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="1">
+        <v>10</v>
+      </c>
+      <c r="B13" s="1"/>
       <c r="C13" s="1"/>
       <c r="D13" s="1"/>
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
       <c r="G13" s="1"/>
-      <c r="H13" s="1"/>
-    </row>
-    <row r="14" spans="2:8" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="1">
-        <v>9</v>
-      </c>
+    </row>
+    <row r="14" spans="1:7" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="1">
+        <v>11</v>
+      </c>
+      <c r="B14" s="1"/>
       <c r="C14" s="1"/>
       <c r="D14" s="1"/>
       <c r="E14" s="1"/>
       <c r="F14" s="1"/>
       <c r="G14" s="1"/>
-      <c r="H14" s="1"/>
-    </row>
-    <row r="15" spans="2:8" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="1">
-        <v>10</v>
-      </c>
+    </row>
+    <row r="15" spans="1:7" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="1">
+        <v>12</v>
+      </c>
+      <c r="B15" s="1"/>
       <c r="C15" s="1"/>
       <c r="D15" s="1"/>
       <c r="E15" s="1"/>
       <c r="F15" s="1"/>
       <c r="G15" s="1"/>
-      <c r="H15" s="1"/>
-    </row>
-    <row r="16" spans="2:8" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="1">
-        <v>11</v>
-      </c>
+    </row>
+    <row r="16" spans="1:7" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="1">
+        <v>13</v>
+      </c>
+      <c r="B16" s="1"/>
       <c r="C16" s="1"/>
       <c r="D16" s="1"/>
       <c r="E16" s="1"/>
       <c r="F16" s="1"/>
       <c r="G16" s="1"/>
-      <c r="H16" s="1"/>
-    </row>
-    <row r="17" spans="2:8" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="1">
-        <v>12</v>
-      </c>
+    </row>
+    <row r="17" spans="1:7" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="1">
+        <v>14</v>
+      </c>
+      <c r="B17" s="1"/>
       <c r="C17" s="1"/>
       <c r="D17" s="1"/>
       <c r="E17" s="1"/>
       <c r="F17" s="1"/>
       <c r="G17" s="1"/>
-      <c r="H17" s="1"/>
-    </row>
-    <row r="18" spans="2:8" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="1">
-        <v>13</v>
-      </c>
+    </row>
+    <row r="18" spans="1:7" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="1">
+        <v>15</v>
+      </c>
+      <c r="B18" s="1"/>
       <c r="C18" s="1"/>
       <c r="D18" s="1"/>
       <c r="E18" s="1"/>
       <c r="F18" s="1"/>
       <c r="G18" s="1"/>
-      <c r="H18" s="1"/>
-    </row>
-    <row r="19" spans="2:8" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="1">
-        <v>14</v>
-      </c>
+    </row>
+    <row r="19" spans="1:7" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="1">
+        <v>16</v>
+      </c>
+      <c r="B19" s="1"/>
       <c r="C19" s="1"/>
       <c r="D19" s="1"/>
       <c r="E19" s="1"/>
       <c r="F19" s="1"/>
       <c r="G19" s="1"/>
-      <c r="H19" s="1"/>
-    </row>
-    <row r="20" spans="2:8" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="1">
-        <v>15</v>
-      </c>
+    </row>
+    <row r="20" spans="1:7" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="1">
+        <v>17</v>
+      </c>
+      <c r="B20" s="1"/>
       <c r="C20" s="1"/>
       <c r="D20" s="1"/>
       <c r="E20" s="1"/>
       <c r="F20" s="1"/>
       <c r="G20" s="1"/>
-      <c r="H20" s="1"/>
-    </row>
-    <row r="21" spans="2:8" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B21" s="1">
-        <v>16</v>
-      </c>
+    </row>
+    <row r="21" spans="1:7" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="1">
+        <v>18</v>
+      </c>
+      <c r="B21" s="1"/>
       <c r="C21" s="1"/>
       <c r="D21" s="1"/>
       <c r="E21" s="1"/>
       <c r="F21" s="1"/>
       <c r="G21" s="1"/>
-      <c r="H21" s="1"/>
-    </row>
-    <row r="22" spans="2:8" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B22" s="1">
-        <v>17</v>
-      </c>
+    </row>
+    <row r="22" spans="1:7" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="1">
+        <v>19</v>
+      </c>
+      <c r="B22" s="1"/>
       <c r="C22" s="1"/>
       <c r="D22" s="1"/>
       <c r="E22" s="1"/>
       <c r="F22" s="1"/>
       <c r="G22" s="1"/>
-      <c r="H22" s="1"/>
-    </row>
-    <row r="23" spans="2:8" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B23" s="1">
-        <v>18</v>
-      </c>
+    </row>
+    <row r="23" spans="1:7" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="1">
+        <v>20</v>
+      </c>
+      <c r="B23" s="1"/>
       <c r="C23" s="1"/>
       <c r="D23" s="1"/>
       <c r="E23" s="1"/>
       <c r="F23" s="1"/>
       <c r="G23" s="1"/>
-      <c r="H23" s="1"/>
-    </row>
-    <row r="24" spans="2:8" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B24" s="1">
-        <v>19</v>
-      </c>
+    </row>
+    <row r="24" spans="1:7" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="1">
+        <v>21</v>
+      </c>
+      <c r="B24" s="1"/>
       <c r="C24" s="1"/>
       <c r="D24" s="1"/>
       <c r="E24" s="1"/>
       <c r="F24" s="1"/>
       <c r="G24" s="1"/>
-      <c r="H24" s="1"/>
-    </row>
-    <row r="25" spans="2:8" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B25" s="1">
-        <v>20</v>
-      </c>
+    </row>
+    <row r="25" spans="1:7" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="1">
+        <v>22</v>
+      </c>
+      <c r="B25" s="1"/>
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>
       <c r="E25" s="1"/>
       <c r="F25" s="1"/>
       <c r="G25" s="1"/>
-      <c r="H25" s="1"/>
-    </row>
-    <row r="26" spans="2:8" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B26" s="1">
-        <v>21</v>
-      </c>
+    </row>
+    <row r="26" spans="1:7" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="1">
+        <v>23</v>
+      </c>
+      <c r="B26" s="1"/>
       <c r="C26" s="1"/>
       <c r="D26" s="1"/>
       <c r="E26" s="1"/>
       <c r="F26" s="1"/>
       <c r="G26" s="1"/>
-      <c r="H26" s="1"/>
-    </row>
-    <row r="27" spans="2:8" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B27" s="1">
-        <v>22</v>
-      </c>
+    </row>
+    <row r="27" spans="1:7" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="1">
+        <v>24</v>
+      </c>
+      <c r="B27" s="1"/>
       <c r="C27" s="1"/>
       <c r="D27" s="1"/>
       <c r="E27" s="1"/>
       <c r="F27" s="1"/>
       <c r="G27" s="1"/>
-      <c r="H27" s="1"/>
-    </row>
-    <row r="28" spans="2:8" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B28" s="1">
-        <v>23</v>
-      </c>
+    </row>
+    <row r="28" spans="1:7" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="1">
+        <v>25</v>
+      </c>
+      <c r="B28" s="1"/>
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
       <c r="E28" s="1"/>
       <c r="F28" s="1"/>
       <c r="G28" s="1"/>
-      <c r="H28" s="1"/>
-    </row>
-    <row r="29" spans="2:8" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B29" s="1">
-        <v>24</v>
-      </c>
+    </row>
+    <row r="29" spans="1:7" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="1">
+        <v>26</v>
+      </c>
+      <c r="B29" s="1"/>
       <c r="C29" s="1"/>
       <c r="D29" s="1"/>
       <c r="E29" s="1"/>
       <c r="F29" s="1"/>
       <c r="G29" s="1"/>
-      <c r="H29" s="1"/>
-    </row>
-    <row r="30" spans="2:8" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B30" s="1">
-        <v>25</v>
-      </c>
+    </row>
+    <row r="30" spans="1:7" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="1">
+        <v>27</v>
+      </c>
+      <c r="B30" s="1"/>
       <c r="C30" s="1"/>
       <c r="D30" s="1"/>
       <c r="E30" s="1"/>
       <c r="F30" s="1"/>
       <c r="G30" s="1"/>
-      <c r="H30" s="1"/>
-    </row>
-    <row r="31" spans="2:8" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B31" s="1">
-        <v>26</v>
-      </c>
+    </row>
+    <row r="31" spans="1:7" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="1">
+        <v>28</v>
+      </c>
+      <c r="B31" s="1"/>
       <c r="C31" s="1"/>
       <c r="D31" s="1"/>
       <c r="E31" s="1"/>
       <c r="F31" s="1"/>
       <c r="G31" s="1"/>
-      <c r="H31" s="1"/>
-    </row>
-    <row r="32" spans="2:8" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B32" s="1">
-        <v>27</v>
-      </c>
+    </row>
+    <row r="32" spans="1:7" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="1">
+        <v>29</v>
+      </c>
+      <c r="B32" s="1"/>
       <c r="C32" s="1"/>
       <c r="D32" s="1"/>
       <c r="E32" s="1"/>
       <c r="F32" s="1"/>
       <c r="G32" s="1"/>
-      <c r="H32" s="1"/>
-    </row>
-    <row r="33" spans="2:8" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B33" s="1">
-        <v>28</v>
-      </c>
+    </row>
+    <row r="33" spans="1:7" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="1">
+        <v>30</v>
+      </c>
+      <c r="B33" s="1"/>
       <c r="C33" s="1"/>
       <c r="D33" s="1"/>
       <c r="E33" s="1"/>
       <c r="F33" s="1"/>
       <c r="G33" s="1"/>
-      <c r="H33" s="1"/>
-    </row>
-    <row r="34" spans="2:8" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B34" s="1">
-        <v>29</v>
-      </c>
-      <c r="C34" s="1"/>
-      <c r="D34" s="1"/>
-      <c r="E34" s="1"/>
-      <c r="F34" s="1"/>
-      <c r="G34" s="1"/>
-      <c r="H34" s="1"/>
-    </row>
-    <row r="35" spans="2:8" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B35" s="1">
-        <v>30</v>
-      </c>
-      <c r="C35" s="1"/>
-      <c r="D35" s="1"/>
-      <c r="E35" s="1"/>
-      <c r="F35" s="1"/>
-      <c r="G35" s="1"/>
-      <c r="H35" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/AEB_Release_ChangeNote.xlsx
+++ b/AEB_Release_ChangeNote.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="41">
   <si>
     <t xml:space="preserve">No </t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -124,6 +124,70 @@
   </si>
   <si>
     <t>Running Cycle 70msec  &amp; No trigger</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20200918_v174.06.19</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20200918_v174.07.19</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20200918_v174.08.19</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20200918_v174.09.19</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CAM debugging add for Kalman filter test</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Predvalue log erorr fix for Fleet test</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v174.06.19</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v174.07.19</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v174.08.19</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v174.09.19</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>For Fleet test</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Fix the frequent AEB trigger during Fleet Test  7sec</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2020.09.22</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2020.09.22</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2020.09.24</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2020.09.25</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -235,7 +299,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -252,6 +316,9 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -537,7 +604,7 @@
   <dimension ref="A3:G33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -681,44 +748,84 @@
       <c r="A9" s="1">
         <v>6</v>
       </c>
-      <c r="B9" s="1"/>
-      <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
-      <c r="E9" s="1"/>
-      <c r="F9" s="1"/>
+      <c r="B9" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>5</v>
+      </c>
       <c r="G9" s="1"/>
     </row>
     <row r="10" spans="1:7" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>7</v>
       </c>
-      <c r="B10" s="1"/>
-      <c r="C10" s="1"/>
-      <c r="D10" s="1"/>
-      <c r="E10" s="1"/>
-      <c r="F10" s="1"/>
+      <c r="B10" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>5</v>
+      </c>
       <c r="G10" s="1"/>
     </row>
     <row r="11" spans="1:7" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>8</v>
       </c>
-      <c r="B11" s="1"/>
-      <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
-      <c r="E11" s="1"/>
-      <c r="F11" s="1"/>
+      <c r="B11" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>5</v>
+      </c>
       <c r="G11" s="1"/>
     </row>
     <row r="12" spans="1:7" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>9</v>
       </c>
-      <c r="B12" s="1"/>
-      <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
-      <c r="E12" s="1"/>
-      <c r="F12" s="1"/>
+      <c r="B12" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>5</v>
+      </c>
       <c r="G12" s="1"/>
     </row>
     <row r="13" spans="1:7" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">

--- a/AEB_Release_ChangeNote.xlsx
+++ b/AEB_Release_ChangeNote.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12285"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11625"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="66">
   <si>
     <t xml:space="preserve">No </t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -127,22 +127,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>20200918_v174.06.19</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>20200918_v174.07.19</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>20200918_v174.08.19</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>20200918_v174.09.19</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>CAM debugging add for Kalman filter test</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -188,6 +172,123 @@
   </si>
   <si>
     <t>2020.09.25</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v174.10.19</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CAM Alive Count  added</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>임승한</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2020.09.28</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2020.10.07</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v174.11.19</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v174.12.19</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v174.13.19</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v174.14.19</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v174.15.19</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2020.10.12</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2020.10.13</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2020.10.14</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2020.10.15</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Fleet Test debugging added</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Send Msge 변경
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Update 175 library release</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Add files via upload</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>add debug mode</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20200922_v174.06.19</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20200922_v174.07.19</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20200924_v174.08.19</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20200925_v174.09.19</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20200925_v174.10.19</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20201007_v174.11.19</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20201012_v174.12.19</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20201013_v174.13.19</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20201014_v175.14.19</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20201015_v175.15.19</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -603,8 +704,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:G33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -749,16 +850,16 @@
         <v>6</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="C9" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D9" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="D9" s="6" t="s">
-        <v>35</v>
-      </c>
       <c r="E9" s="1" t="s">
-        <v>25</v>
+        <v>56</v>
       </c>
       <c r="F9" s="1" t="s">
         <v>5</v>
@@ -770,16 +871,16 @@
         <v>7</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="C10" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D10" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="D10" s="6" t="s">
-        <v>36</v>
-      </c>
       <c r="E10" s="1" t="s">
-        <v>26</v>
+        <v>57</v>
       </c>
       <c r="F10" s="1" t="s">
         <v>5</v>
@@ -791,16 +892,16 @@
         <v>8</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>27</v>
+        <v>58</v>
       </c>
       <c r="F11" s="1" t="s">
         <v>5</v>
@@ -812,16 +913,16 @@
         <v>9</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>28</v>
+        <v>59</v>
       </c>
       <c r="F12" s="1" t="s">
         <v>5</v>
@@ -832,66 +933,126 @@
       <c r="A13" s="1">
         <v>10</v>
       </c>
-      <c r="B13" s="1"/>
-      <c r="C13" s="1"/>
-      <c r="D13" s="1"/>
-      <c r="E13" s="1"/>
-      <c r="F13" s="1"/>
+      <c r="B13" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>39</v>
+      </c>
       <c r="G13" s="1"/>
     </row>
     <row r="14" spans="1:7" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>11</v>
       </c>
-      <c r="B14" s="1"/>
-      <c r="C14" s="1"/>
-      <c r="D14" s="1"/>
-      <c r="E14" s="1"/>
-      <c r="F14" s="1"/>
+      <c r="B14" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>5</v>
+      </c>
       <c r="G14" s="1"/>
     </row>
     <row r="15" spans="1:7" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>12</v>
       </c>
-      <c r="B15" s="1"/>
-      <c r="C15" s="1"/>
-      <c r="D15" s="1"/>
-      <c r="E15" s="1"/>
-      <c r="F15" s="1"/>
+      <c r="B15" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D15" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>5</v>
+      </c>
       <c r="G15" s="1"/>
     </row>
     <row r="16" spans="1:7" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>13</v>
       </c>
-      <c r="B16" s="1"/>
-      <c r="C16" s="1"/>
-      <c r="D16" s="1"/>
-      <c r="E16" s="1"/>
-      <c r="F16" s="1"/>
+      <c r="B16" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D16" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>5</v>
+      </c>
       <c r="G16" s="1"/>
     </row>
     <row r="17" spans="1:7" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>14</v>
       </c>
-      <c r="B17" s="1"/>
-      <c r="C17" s="1"/>
-      <c r="D17" s="1"/>
-      <c r="E17" s="1"/>
-      <c r="F17" s="1"/>
+      <c r="B17" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>5</v>
+      </c>
       <c r="G17" s="1"/>
     </row>
     <row r="18" spans="1:7" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <v>15</v>
       </c>
-      <c r="B18" s="1"/>
-      <c r="C18" s="1"/>
-      <c r="D18" s="1"/>
-      <c r="E18" s="1"/>
-      <c r="F18" s="1"/>
+      <c r="B18" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>5</v>
+      </c>
       <c r="G18" s="1"/>
     </row>
     <row r="19" spans="1:7" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">

--- a/AEB_Release_ChangeNote.xlsx
+++ b/AEB_Release_ChangeNote.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="70">
   <si>
     <t xml:space="preserve">No </t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -289,6 +289,22 @@
   </si>
   <si>
     <t>20201015_v175.15.19</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v174.20.19</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2020.11.02</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Add PG test binary file</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20201102_v175.20.19</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -704,8 +720,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:G33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1103,11 +1119,21 @@
       <c r="A23" s="1">
         <v>20</v>
       </c>
-      <c r="B23" s="1"/>
-      <c r="C23" s="1"/>
-      <c r="D23" s="1"/>
-      <c r="E23" s="1"/>
-      <c r="F23" s="1"/>
+      <c r="B23" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>5</v>
+      </c>
       <c r="G23" s="1"/>
     </row>
     <row r="24" spans="1:7" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">

--- a/AEB_Release_ChangeNote.xlsx
+++ b/AEB_Release_ChangeNote.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="85">
   <si>
     <t xml:space="preserve">No </t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -305,6 +305,66 @@
   </si>
   <si>
     <t>20201102_v175.20.19</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2020.11.24</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2020.11.03</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v175.21.19</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20201103_v175.21.19</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2020.11.04</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v175.22.19</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BIN FOR fLEET tEST</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TEST FOR PEDESTRIAN DETECT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UPLOAD FOR TEST NEW PROTOCOL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v175.23.19</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20201104_v175.22.19</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20201104_v175.23.19</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DIGEN Library 176 Update release</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v176.01.19</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20201124_v176.01.19</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -720,8 +780,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:G33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="E24" sqref="E24"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="E27" sqref="E27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1140,44 +1200,84 @@
       <c r="A24" s="1">
         <v>21</v>
       </c>
-      <c r="B24" s="1"/>
-      <c r="C24" s="1"/>
-      <c r="D24" s="1"/>
-      <c r="E24" s="1"/>
-      <c r="F24" s="1"/>
+      <c r="B24" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="D24" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>5</v>
+      </c>
       <c r="G24" s="1"/>
     </row>
     <row r="25" spans="1:7" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
         <v>22</v>
       </c>
-      <c r="B25" s="1"/>
-      <c r="C25" s="1"/>
-      <c r="D25" s="1"/>
-      <c r="E25" s="1"/>
-      <c r="F25" s="1"/>
+      <c r="B25" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>5</v>
+      </c>
       <c r="G25" s="1"/>
     </row>
     <row r="26" spans="1:7" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="1">
         <v>23</v>
       </c>
-      <c r="B26" s="1"/>
-      <c r="C26" s="1"/>
-      <c r="D26" s="1"/>
-      <c r="E26" s="1"/>
-      <c r="F26" s="1"/>
+      <c r="B26" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="F26" s="1" t="s">
+        <v>5</v>
+      </c>
       <c r="G26" s="1"/>
     </row>
     <row r="27" spans="1:7" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="1">
         <v>24</v>
       </c>
-      <c r="B27" s="1"/>
-      <c r="C27" s="1"/>
-      <c r="D27" s="1"/>
-      <c r="E27" s="1"/>
-      <c r="F27" s="1"/>
+      <c r="B27" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="F27" s="1" t="s">
+        <v>5</v>
+      </c>
       <c r="G27" s="1"/>
     </row>
     <row r="28" spans="1:7" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
